--- a/src/main/resources/template/excel/export/FranchiseAdvance.xlsx
+++ b/src/main/resources/template/excel/export/FranchiseAdvance.xlsx
@@ -35,11 +35,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="F7")</t>
+          <t>jx:area(lastCell="H12")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="F5")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="H11")</t>
         </r>
       </text>
     </comment>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>加盟店预收款</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -77,111 +74,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>合计：</t>
-  </si>
-  <si>
-    <r>
-      <t>制单人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>制单时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{createTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>最后修改时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{updateTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核人：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditUserName}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>审核时间：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{auditTime}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -250,7 +142,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>remark</t>
+      <t>amount</t>
     </r>
     <r>
       <rPr>
@@ -261,84 +153,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>${obj.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>amount</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>单据编号：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{formNo}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>备注：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{remark}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>付款日期：$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{payTime}</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -360,11 +174,117 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加盟店：${branchName}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${obj.ioString}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟店预收款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>加盟店：</t>
+  </si>
+  <si>
+    <t>单据编号：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单人：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款日期：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单时间：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改人：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改时间：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${branchName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${formNo}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${createUserName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${createTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${payTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateUserName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${updateTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${auditUserName}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${auditTime}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${remark}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.remark}</t>
+  </si>
+  <si>
+    <r>
+      <t>${obj.rowNo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -373,9 +293,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +333,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,7 +370,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -445,41 +393,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -757,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,108 +755,256 @@
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="C10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="C11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
+  <mergeCells count="22">
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:E2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
